--- a/平成31年度/01_参加申込関連/08.24-25_第８回　真夏の王子サマーリーグ２０１９　ミニバスケットボール大会/2019真夏の王子リーグ表.xlsx
+++ b/平成31年度/01_参加申込関連/08.24-25_第８回　真夏の王子サマーリーグ２０１９　ミニバスケットボール大会/2019真夏の王子リーグ表.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\01_参加申込関連\08.24-25_第８回　真夏の王子サマーリーグ２０１９　ミニバスケットボール大会\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-4455" yWindow="-45" windowWidth="20490" windowHeight="7770"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_MailOriginal" localSheetId="0">リーグ表!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -384,7 +389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1118,7 +1123,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1132,7 +1137,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2247,6 +2252,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="12" scale="67" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="12" scale="67" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>